--- a/task1/table.xlsx
+++ b/task1/table.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\metnum-uwu\task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA282D9-21A9-4518-8307-C4369137AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0356D-3C35-41EA-BB44-EF57F5D5A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Step1" sheetId="7" r:id="rId1"/>
-    <sheet name="Step2" sheetId="8" r:id="rId2"/>
-    <sheet name="Step3" sheetId="9" r:id="rId3"/>
-    <sheet name="Step4" sheetId="10" r:id="rId4"/>
-    <sheet name="Step5" sheetId="11" r:id="rId5"/>
-    <sheet name="Step6" sheetId="12" r:id="rId6"/>
+    <sheet name="Table1" sheetId="7" r:id="rId1"/>
+    <sheet name="Table2" sheetId="8" r:id="rId2"/>
+    <sheet name="Table3" sheetId="9" r:id="rId3"/>
+    <sheet name="Table4" sheetId="10" r:id="rId4"/>
+    <sheet name="Table5" sheetId="11" r:id="rId5"/>
+    <sheet name="Table6" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -152,15 +152,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -209,7 +209,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Step1!$C$5</c:f>
+              <c:f>Table1!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -244,7 +244,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Step1!$B$6:$B$16</c:f>
+              <c:f>Table1!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -286,7 +286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Step1!$C$6:$C$16</c:f>
+              <c:f>Table1!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -524,7 +524,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Step2!$C$5</c:f>
+              <c:f>Table2!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -559,7 +559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Step2!$B$6:$B$16</c:f>
+              <c:f>Table2!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -601,7 +601,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Step2!$C$6:$C$16</c:f>
+              <c:f>Table2!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -839,7 +839,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Step3!$C$5</c:f>
+              <c:f>Table3!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -874,7 +874,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Step3!$B$6:$B$16</c:f>
+              <c:f>Table3!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -916,7 +916,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Step3!$C$6:$C$16</c:f>
+              <c:f>Table3!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1154,7 +1154,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Step4!$C$5</c:f>
+              <c:f>Table4!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1189,7 +1189,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Step4!$B$6:$B$16</c:f>
+              <c:f>Table4!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1231,7 +1231,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Step4!$C$6:$C$16</c:f>
+              <c:f>Table4!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1469,7 +1469,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Step5!$C$5</c:f>
+              <c:f>Table5!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1504,7 +1504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Step5!$B$6:$B$16</c:f>
+              <c:f>Table5!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1546,7 +1546,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Step5!$C$6:$C$16</c:f>
+              <c:f>Table5!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1784,7 +1784,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Step6!$C$5</c:f>
+              <c:f>Table6!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1819,7 +1819,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Step6!$B$6:$B$16</c:f>
+              <c:f>Table6!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1861,7 +1861,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Step6!$C$6:$C$16</c:f>
+              <c:f>Table6!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5876,14 +5876,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -5903,19 +5903,19 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>-3.3000000000000007</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3.2099999999999973</v>
       </c>
@@ -6018,14 +6018,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -6090,19 +6090,19 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>1.6</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>-0.42072000000000109</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>1.7</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>0.33908999999999789</v>
       </c>
@@ -6160,14 +6160,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -6223,19 +6223,19 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>1.65</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>-5.2323750000002001E-2</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>1.66</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>2.4095279999997388E-2</v>
       </c>
@@ -6302,14 +6302,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -6374,19 +6374,19 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>1.6559999999999999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>-6.583173120001895E-3</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>1.657</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>1.072565489998567E-3</v>
       </c>
@@ -6444,14 +6444,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -6534,19 +6534,19 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>1.6568000000000001</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>-4.5932173824247968E-4</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>1.6569</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>3.065756483682236E-4</v>
       </c>
@@ -6586,14 +6586,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -6649,19 +6649,19 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>1.6568499999999999</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>-7.6384601466195079E-5</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>1.65686</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>2.0559943525455537E-7</v>
       </c>

--- a/task1/table.xlsx
+++ b/task1/table.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\metnum-uwu\task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0356D-3C35-41EA-BB44-EF57F5D5A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39377B5B-6A56-4666-8791-97D2EBAED0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="7" r:id="rId1"/>
-    <sheet name="Table2" sheetId="8" r:id="rId2"/>
-    <sheet name="Table3" sheetId="9" r:id="rId3"/>
-    <sheet name="Table4" sheetId="10" r:id="rId4"/>
-    <sheet name="Table5" sheetId="11" r:id="rId5"/>
-    <sheet name="Table6" sheetId="12" r:id="rId6"/>
+    <sheet name="Table2" sheetId="13" r:id="rId2"/>
+    <sheet name="Table3" sheetId="14" r:id="rId3"/>
+    <sheet name="Table4" sheetId="15" r:id="rId4"/>
+    <sheet name="Table5" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>f(x) = 2.05x^3-1.12x^3-4.23</t>
+    <t>f(x)</t>
   </si>
   <si>
-    <t>f(x)</t>
+    <t>f(x) = 2.99x^5-1.12x^3-1.26</t>
   </si>
 </sst>
 </file>
@@ -100,7 +99,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,13 +142,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,37 +251,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,37 +293,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-4.2300000000000004</c:v>
+                  <c:v>-9205.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.3000000000000007</c:v>
+                  <c:v>-2991.3400000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2099999999999973</c:v>
+                  <c:v>-697.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.879999999999992</c:v>
+                  <c:v>-87.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.289999999999978</c:v>
+                  <c:v>-3.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.02</c:v>
+                  <c:v>-1.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>196.64999999999995</c:v>
+                  <c:v>0.6100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>314.75999999999993</c:v>
+                  <c:v>85.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>471.92999999999984</c:v>
+                  <c:v>695.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>673.73999999999967</c:v>
+                  <c:v>2988.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>925.77</c:v>
+                  <c:v>9202.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,37 +566,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,37 +608,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-3.3000000000000007</c:v>
+                  <c:v>-1.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9921700000000002</c:v>
+                  <c:v>-1.2610901000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.6229600000000008</c:v>
+                  <c:v>-1.2680032000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1867900000000002</c:v>
+                  <c:v>-1.2829743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.6780800000000022</c:v>
+                  <c:v>-1.3010624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0912500000000014</c:v>
+                  <c:v>-1.3065625000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.42072000000000109</c:v>
+                  <c:v>-1.2694176000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33908999999999789</c:v>
+                  <c:v>-1.1416307000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1937599999999984</c:v>
+                  <c:v>-0.85367679999999957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1488699999999961</c:v>
+                  <c:v>-0.31091489999999944</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2099999999999973</c:v>
+                  <c:v>0.6100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,7 +646,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C089-439A-A3C7-2C19FA3DA8F6}"/>
+              <c16:uniqueId val="{00000000-096B-4194-9D32-F1D31F0A6656}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -879,37 +881,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.61</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.62</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.63</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.64</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.65</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.66</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.67</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.68</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.69</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,37 +923,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.42072000000000109</c:v>
+                  <c:v>-0.31091489999999944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.34884867000000064</c:v>
+                  <c:v>-0.23814340615099971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.27607896000000043</c:v>
+                  <c:v>-0.16147680563199951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.20240529000000151</c:v>
+                  <c:v>-8.0771615792999629E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.12782208000000317</c:v>
+                  <c:v>4.1189469759996822E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.2323750000002001E-2</c:v>
+                  <c:v>9.334500312500027E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4095279999997388E-2</c:v>
+                  <c:v>0.18706004582399993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10144058999999839</c:v>
+                  <c:v>0.28542097684299983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17971775999999817</c:v>
+                  <c:v>0.38858814243199946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25893236999999747</c:v>
+                  <c:v>0.49672536920100008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33908999999999789</c:v>
+                  <c:v>0.6100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-216B-4177-8EAB-5FC8987E6A09}"/>
+              <c16:uniqueId val="{00000000-54E4-428F-AD98-D8FC0244B0AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1194,37 +1196,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.65</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.651</c:v>
+                  <c:v>0.93100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6519999999999999</c:v>
+                  <c:v>0.93200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.653</c:v>
+                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6539999999999999</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.655</c:v>
+                  <c:v>0.93500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6559999999999999</c:v>
+                  <c:v>0.93600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.657</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6579999999999999</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.659</c:v>
+                  <c:v>0.93899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.66</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,37 +1238,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-5.2323750000002001E-2</c:v>
+                  <c:v>-8.0771615792999629E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.4723370569999865E-2</c:v>
+                  <c:v>-7.2473352014782888E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.7113778560002864E-2</c:v>
+                  <c:v>-6.4133088650167869E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.9494968390001652E-2</c:v>
+                  <c:v>-5.5750676755119466E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.1866934480002875E-2</c:v>
+                  <c:v>-4.7325967051201401E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.422967125000163E-2</c:v>
+                  <c:v>-3.8858809925218063E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.583173120001895E-3</c:v>
+                  <c:v>-3.0349055428853022E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.072565489998567E-3</c:v>
+                  <c:v>-2.1796553278312869E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7375501599957772E-3</c:v>
+                  <c:v>-1.3201152853968168E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6411786469998191E-2</c:v>
+                  <c:v>-4.5627031999904144E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4095279999997388E-2</c:v>
+                  <c:v>4.1189469759996822E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,7 +1276,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3C5-44F1-9D0A-A25B51542F98}"/>
+              <c16:uniqueId val="{00000000-C2AA-4236-8974-31DFFB70DE9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1509,37 +1511,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6559999999999999</c:v>
+                  <c:v>0.93899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6560999999999999</c:v>
+                  <c:v>0.93910000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6561999999999999</c:v>
+                  <c:v>0.93920000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6563000000000001</c:v>
+                  <c:v>0.93930000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6564000000000001</c:v>
+                  <c:v>0.93940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6565000000000001</c:v>
+                  <c:v>0.9395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6566000000000001</c:v>
+                  <c:v>0.93960000000000099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6567000000000001</c:v>
+                  <c:v>0.93970000000000098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6568000000000001</c:v>
+                  <c:v>0.93980000000000097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6569</c:v>
+                  <c:v>0.93990000000000096</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.657</c:v>
+                  <c:v>0.94000000000000095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,37 +1553,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-6.583173120001895E-3</c:v>
+                  <c:v>-4.5627031999904144E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.8180151726725526E-3</c:v>
+                  <c:v>-3.6964847051228489E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.0527648149625293E-3</c:v>
+                  <c:v>-2.8298340538361888E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.2874220412913999E-3</c:v>
+                  <c:v>-1.9627510946189641E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.5219868460822923E-3</c:v>
+                  <c:v>-1.0952356759250659E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.7564592237503405E-3</c:v>
+                  <c:v>-2.2728764617641062E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.9908391687204485E-3</c:v>
+                  <c:v>6.4109314624727354E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2251266754121914E-3</c:v>
+                  <c:v>1.5099068529755844E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.5932173824247968E-4</c:v>
+                  <c:v>2.3791536256974055E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.065756483682236E-4</c:v>
+                  <c:v>3.2488336161260456E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.072565489998567E-3</c:v>
+                  <c:v>4.118946976008786E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,322 +1591,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A481-4050-BF57-AF985224A586}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1227196927"/>
-        <c:axId val="1227191519"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1227196927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1227191519"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1227191519"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1227196927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Table6!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f(x)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Table6!$B$6:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.6568000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6568099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.65682</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.65683</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6568400000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6568499999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.65686</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6568700000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6568799999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.65689</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Table6!$C$6:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-4.5932173824247968E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.827361598975898E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.061496570540001E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.295622297028288E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.5297387784229954E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.6384601466195079E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0559943525455537E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.6796724862937538E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5338877482307112E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2998174932276072E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.065756483682236E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A57F-4BD4-A207-A809A0F6A1B3}"/>
+              <c16:uniqueId val="{00000000-F777-4517-9081-C9FD5D8519F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2274,46 +1961,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4379,522 +4026,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5471,7 +4602,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A20450-884D-46F8-9270-CE7B557DEF15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1270FAC-4C03-4F6C-A359-A8DFE97BAD04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5514,7 +4645,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FAD04C-9B98-4E04-B044-5632957F3546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C692D4D-C06E-482C-816C-3144EEC1F554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5557,7 +4688,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391B8C6E-8A90-4AC9-97A3-25C65DB2740E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B2FDC1-7CB7-4FD6-9815-39F4A5200942}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5600,50 +4731,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9F2BFB-129D-4CBD-841C-7C778B4C6498}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D804D1-41B5-4D12-A6AE-546E316CB90C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43BD40BF-3EC4-463F-A6A6-35C606BF9CB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5876,120 +4964,120 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>0</v>
+      <c r="B6" s="4">
+        <v>-5</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C16" si="0">2.05*(B6^3)-1.12*(B6^3)-4.23</f>
-        <v>-4.2300000000000004</v>
+        <f>2.99*(B6^5)-1.12*(B6^3)-1.26</f>
+        <v>-9205.01</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>-3.3000000000000007</v>
+        <v>-4</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C16" si="0">2.99*(B7^5)-1.12*(B7^3)-1.26</f>
+        <v>-2991.3400000000006</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
+        <v>-3</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>3.2099999999999973</v>
+        <v>-697.59</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>3</v>
+      <c r="B9" s="4">
+        <v>-2</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>20.879999999999992</v>
+        <v>-87.98</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>4</v>
+      <c r="B10" s="4">
+        <v>-1</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>55.289999999999978</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>112.02</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>196.64999999999995</v>
+        <v>0.6100000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>7</v>
+      <c r="B13" s="4">
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>314.75999999999993</v>
+        <v>85.46</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>8</v>
+      <c r="B14" s="4">
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>471.92999999999984</v>
+        <v>695.07</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>9</v>
+      <c r="B15" s="4">
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>673.73999999999967</v>
+        <v>2988.82</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>10</v>
+      <c r="B16" s="4">
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>925.77</v>
+        <v>9202.49</v>
       </c>
     </row>
   </sheetData>
@@ -6003,7 +5091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C53109-15F2-441D-A326-3A9D03F9840D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A86AF28-1838-4112-86D1-5AA3019B0080}">
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6018,120 +5106,120 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>1</v>
+      <c r="B6" s="4">
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C16" si="0">2.05*(B6^3)-1.12*(B6^3)-4.23</f>
-        <v>-3.3000000000000007</v>
+        <f>2.99*(B6^5)-1.12*(B6^3)-1.26</f>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1.1000000000000001</v>
+      <c r="B7" s="4">
+        <v>0.1</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.9921700000000002</v>
+        <f t="shared" ref="C7:C16" si="0">2.99*(B7^5)-1.12*(B7^3)-1.26</f>
+        <v>-1.2610901000000001</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>1.2</v>
+      <c r="B8" s="4">
+        <v>0.2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>-2.6229600000000008</v>
+        <v>-1.2680032000000001</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>1.3</v>
+      <c r="B9" s="4">
+        <v>0.3</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1867900000000002</v>
+        <v>-1.2829743</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>1.4</v>
+      <c r="B10" s="4">
+        <v>0.4</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6780800000000022</v>
+        <v>-1.3010624</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>-1.0912500000000014</v>
+        <v>-1.3065625000000001</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>-0.42072000000000109</v>
+        <v>-1.2694176000000001</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="C13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.33908999999999789</v>
+        <v>-1.1416307000000001</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>1.8</v>
+      <c r="B14" s="4">
+        <v>0.8</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>1.1937599999999984</v>
+        <v>-0.85367679999999957</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>2.1488699999999961</v>
+        <v>-0.31091489999999944</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>3.2099999999999973</v>
+        <v>0.6100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6145,7 +5233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F8D342-A1F3-4E87-A588-C2E53C6D72F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1D775C-F765-489A-97ED-4563052E5594}">
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6160,120 +5248,120 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>1.6</v>
+      <c r="B6" s="4">
+        <v>0.9</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C16" si="0">2.05*(B6^3)-1.12*(B6^3)-4.23</f>
-        <v>-0.42072000000000109</v>
+        <f>2.99*(B6^5)-1.12*(B6^3)-1.26</f>
+        <v>-0.31091489999999944</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1.61</v>
+      <c r="B7" s="4">
+        <v>0.91</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.34884867000000064</v>
+        <f t="shared" ref="C7:C16" si="0">2.99*(B7^5)-1.12*(B7^3)-1.26</f>
+        <v>-0.23814340615099971</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>1.62</v>
+      <c r="B8" s="4">
+        <v>0.92</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.27607896000000043</v>
+        <v>-0.16147680563199951</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>1.63</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>-0.20240529000000151</v>
+        <v>-8.0771615792999629E-2</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>-0.12782208000000317</v>
+        <v>4.1189469759996822E-3</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="C11" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>-5.2323750000002001E-2</v>
+        <v>9.334500312500027E-2</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="C12" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>2.4095279999997388E-2</v>
+        <v>0.18706004582399993</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>1.67</v>
+      <c r="B13" s="4">
+        <v>0.97</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.10144058999999839</v>
+        <v>0.28542097684299983</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>1.68</v>
+      <c r="B14" s="4">
+        <v>0.98</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>0.17971775999999817</v>
+        <v>0.38858814243199946</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>1.69</v>
+      <c r="B15" s="4">
+        <v>0.99</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>0.25893236999999747</v>
+        <v>0.49672536920100008</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>1.7</v>
+      <c r="B16" s="4">
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>0.33908999999999789</v>
+        <v>0.6100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6287,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E493CCB2-E2A7-412C-9FC7-A2B2677DFDF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7349819-2940-4D23-85F2-A1D6332F61A5}">
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6302,120 +5390,120 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>1.65</v>
+      <c r="B6" s="4">
+        <v>0.93</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C16" si="0">2.05*(B6^3)-1.12*(B6^3)-4.23</f>
-        <v>-5.2323750000002001E-2</v>
+        <f>2.99*(B6^5)-1.12*(B6^3)-1.26</f>
+        <v>-8.0771615792999629E-2</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1.651</v>
+      <c r="B7" s="4">
+        <v>0.93100000000000005</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.4723370569999865E-2</v>
+        <f t="shared" ref="C7:C16" si="0">2.99*(B7^5)-1.12*(B7^3)-1.26</f>
+        <v>-7.2473352014782888E-2</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>1.6519999999999999</v>
+      <c r="B8" s="4">
+        <v>0.93200000000000005</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>-3.7113778560002864E-2</v>
+        <v>-6.4133088650167869E-2</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>1.653</v>
+      <c r="B9" s="4">
+        <v>0.93300000000000005</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>-2.9494968390001652E-2</v>
+        <v>-5.5750676755119466E-2</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>1.6539999999999999</v>
+      <c r="B10" s="4">
+        <v>0.93400000000000005</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1866934480002875E-2</v>
+        <v>-4.7325967051201401E-2</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>1.655</v>
+      <c r="B11" s="4">
+        <v>0.93500000000000005</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>-1.422967125000163E-2</v>
+        <v>-3.8858809925218063E-2</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="C12" s="4">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>-6.583173120001895E-3</v>
+        <v>-3.0349055428853022E-2</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <v>1.657</v>
-      </c>
-      <c r="C13" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>1.072565489998567E-3</v>
+        <v>-2.1796553278312869E-2</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>1.6579999999999999</v>
+      <c r="B14" s="4">
+        <v>0.93799999999999994</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>8.7375501599957772E-3</v>
+        <v>-1.3201152853968168E-2</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>1.659</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="5">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>1.6411786469998191E-2</v>
+        <v>-4.5627031999904144E-3</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>1.66</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>2.4095279999997388E-2</v>
+        <v>4.1189469759996822E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA624006-BF89-4B63-B13B-332908987899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EEC985-A9FA-4691-B0B1-19D309CA7132}">
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6444,262 +5532,120 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>1.6559999999999999</v>
+      <c r="B6" s="4">
+        <v>0.93899999999999995</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C16" si="0">2.05*(B6^3)-1.12*(B6^3)-4.23</f>
-        <v>-6.583173120001895E-3</v>
+        <f>2.99*(B6^5)-1.12*(B6^3)-1.26</f>
+        <v>-4.5627031999904144E-3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1.6560999999999999</v>
+      <c r="B7" s="4">
+        <v>0.93910000000000005</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.8180151726725526E-3</v>
+        <f t="shared" ref="C7:C16" si="0">2.99*(B7^5)-1.12*(B7^3)-1.26</f>
+        <v>-3.6964847051228489E-3</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>1.6561999999999999</v>
+      <c r="B8" s="4">
+        <v>0.93920000000000003</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>-5.0527648149625293E-3</v>
+        <v>-2.8298340538361888E-3</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>1.6563000000000001</v>
+      <c r="B9" s="4">
+        <v>0.93930000000000002</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>-4.2874220412913999E-3</v>
+        <v>-1.9627510946189641E-3</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>1.6564000000000001</v>
+      <c r="B10" s="4">
+        <v>0.93940000000000001</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5219868460822923E-3</v>
+        <v>-1.0952356759250659E-3</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>1.6565000000000001</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="5">
+        <v>0.9395</v>
+      </c>
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>-2.7564592237503405E-3</v>
+        <v>-2.2728764617641062E-4</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>1.6566000000000001</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="5">
+        <v>0.93960000000000099</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>-1.9908391687204485E-3</v>
+        <v>6.4109314624727354E-4</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>1.6567000000000001</v>
+      <c r="B13" s="4">
+        <v>0.93970000000000098</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2251266754121914E-3</v>
+        <v>1.5099068529755844E-3</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
-        <v>1.6568000000000001</v>
-      </c>
-      <c r="C14" s="4">
+        <v>0.93980000000000097</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>-4.5932173824247968E-4</v>
+        <v>2.3791536256974055E-3</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <v>1.6569</v>
-      </c>
-      <c r="C15" s="4">
+        <v>0.93990000000000096</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>3.065756483682236E-4</v>
+        <v>3.2488336161260456E-3</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>1.657</v>
+      <c r="B16" s="4">
+        <v>0.94000000000000095</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>1.072565489998567E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E44B64-78DE-4149-AAF1-1E0A9A79D6DD}">
-  <dimension ref="B3:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="3" width="20.77734375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>1.6568000000000001</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:C16" si="0">2.05*(B6^3)-1.12*(B6^3)-4.23</f>
-        <v>-4.5932173824247968E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1.6568099999999999</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.827361598975898E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>1.65682</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.061496570540001E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>1.65683</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.295622297028288E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>1.6568400000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.5297387784229954E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>1.6568499999999999</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>-7.6384601466195079E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>1.65686</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0559943525455537E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>1.6568700000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6796724862937538E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>1.6568799999999999</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5338877482307112E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>1.65689</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2998174932276072E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>1.6569</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>3.065756483682236E-4</v>
+        <v>4.118946976008786E-3</v>
       </c>
     </row>
   </sheetData>
